--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Mroz.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Mroz.xlsx
@@ -461,7 +461,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>27.01.2025</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -472,7 +476,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>27.01.2025</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>

--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Mroz.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Mroz.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,160 +463,747 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27.01.2025</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="A2" s="2" t="n">
+        <v>45687.48496006944</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2554.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.493868112564089</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27.01.2025</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" s="2" t="n">
+        <v>45687.50460011574</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4251.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.607545750481741</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:35.74</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45687.53306655092</v>
       </c>
       <c r="B4" t="n">
+        <v>6710.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.303967646190098</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45687.48287326389</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2374</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.126239436013358</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45687.48495659723</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2554</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.052905304091318</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45687.50398553241</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4198.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.24622218949454</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45685.64971921296</v>
+      </c>
+      <c r="B12" t="n">
         <v>1250.7</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C12" t="n">
         <v>14.29</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D12" t="n">
         <v>3.63045460837228</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:37:40.64</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45685.65116481482</v>
+      </c>
+      <c r="B13" t="n">
         <v>1375.6</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C13" t="n">
         <v>13.7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D13" t="n">
         <v>3.8644768510546</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:43:19.74</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45685.65508958334</v>
+      </c>
+      <c r="B14" t="n">
         <v>1714.7</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C14" t="n">
         <v>14.23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D14" t="n">
         <v>3.947716849190849</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:27:46.84</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>781.8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.16909384727478</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:35.44</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45685.64971574074</v>
+      </c>
+      <c r="B15" t="n">
         <v>1250.4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C15" t="n">
         <v>9.960000000000001</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D15" t="n">
         <v>3.123471191951207</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:59:38.04</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45685.65116134259</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1375.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.955209919384548</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45685.6664125</v>
+      </c>
+      <c r="B17" t="n">
         <v>2693</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C17" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D17" t="n">
         <v>3.159672907420568</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45685.67503402778</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3437.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.400056259972708</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45685.67546805555</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3475.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>13</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.57370798928397</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45685.67800856481</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3694.9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.421598468508037</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45685.67800625</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3694.7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.99589272907802</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45685.68072037037</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3929.2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.853019612176079</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685.68168564815</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4012.6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.069698538099017</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45686.47408518518</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1007.7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.422896930149625</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45686.47663148148</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1227.7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.740582534245081</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45686.479025</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1434.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.525841474533083</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45686.48793819444</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2204.6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.910604238510131</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45686.49154814815</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2516.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.895971638815745</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45686.49223449074</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2575.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.889350380216327</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45686.49080972222</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2452.7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.881922142846244</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45686.49154699074</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2516.4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.903008018221175</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45686.49223333333</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2575.7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.821886471339635</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
